--- a/manuscript/prediction-olk-risk-index.xlsx
+++ b/manuscript/prediction-olk-risk-index.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="23955" windowHeight="10800"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="23900" windowHeight="13900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="114">
   <si>
     <t>Number</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -113,13 +118,268 @@
   </si>
   <si>
     <t>9559237-1</t>
+  </si>
+  <si>
+    <t>Sample_ID</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>ID_128111</t>
+  </si>
+  <si>
+    <t>ID_128113</t>
+  </si>
+  <si>
+    <t>ID_128114</t>
+  </si>
+  <si>
+    <t>ID_128116</t>
+  </si>
+  <si>
+    <t>ID_128119</t>
+  </si>
+  <si>
+    <t>ID_128125</t>
+  </si>
+  <si>
+    <t>ID_128126</t>
+  </si>
+  <si>
+    <t>ID_128128</t>
+  </si>
+  <si>
+    <t>ID_128129</t>
+  </si>
+  <si>
+    <t>ID_128131</t>
+  </si>
+  <si>
+    <t>ID_128132</t>
+  </si>
+  <si>
+    <t>ID_128133</t>
+  </si>
+  <si>
+    <t>ID_128134</t>
+  </si>
+  <si>
+    <t>ID_128136</t>
+  </si>
+  <si>
+    <t>ID_128138</t>
+  </si>
+  <si>
+    <t>ID_128140</t>
+  </si>
+  <si>
+    <t>ID_128141</t>
+  </si>
+  <si>
+    <t>ID_128145</t>
+  </si>
+  <si>
+    <t>ID_128147</t>
+  </si>
+  <si>
+    <t>ID_128149</t>
+  </si>
+  <si>
+    <t>ID_128150</t>
+  </si>
+  <si>
+    <t>ID_9449998</t>
+  </si>
+  <si>
+    <t>ID_9449999</t>
+  </si>
+  <si>
+    <t>ID_9450000</t>
+  </si>
+  <si>
+    <t>ID_9558745</t>
+  </si>
+  <si>
+    <t>ID_9559194</t>
+  </si>
+  <si>
+    <t>ID_9559197</t>
+  </si>
+  <si>
+    <t>ID_9559198</t>
+  </si>
+  <si>
+    <t>ID_9559200</t>
+  </si>
+  <si>
+    <t>ID_9559201</t>
+  </si>
+  <si>
+    <t>ID_9559202</t>
+  </si>
+  <si>
+    <t>ID_9559231</t>
+  </si>
+  <si>
+    <t>ID_9559232</t>
+  </si>
+  <si>
+    <t>ID_9559233</t>
+  </si>
+  <si>
+    <t>ID_9559234</t>
+  </si>
+  <si>
+    <t>ID_9559235</t>
+  </si>
+  <si>
+    <t>ID_9559237-1</t>
+  </si>
+  <si>
+    <t>ID_9559238</t>
+  </si>
+  <si>
+    <t>ID_9559239</t>
+  </si>
+  <si>
+    <t>ID_9559240</t>
+  </si>
+  <si>
+    <t>ID_9559241</t>
+  </si>
+  <si>
+    <t>ID_9559246</t>
+  </si>
+  <si>
+    <t>ID_9559247</t>
+  </si>
+  <si>
+    <t>ID_9559248</t>
+  </si>
+  <si>
+    <t>ID_9559250</t>
+  </si>
+  <si>
+    <t>ID_9559261</t>
+  </si>
+  <si>
+    <t>ID_9559265</t>
+  </si>
+  <si>
+    <t>ID_9559267</t>
+  </si>
+  <si>
+    <t>ID_9559272</t>
+  </si>
+  <si>
+    <t>ID_9559275</t>
+  </si>
+  <si>
+    <t>ID_9559277</t>
+  </si>
+  <si>
+    <t>ID_9559283</t>
+  </si>
+  <si>
+    <t>ID_9559286</t>
+  </si>
+  <si>
+    <t>ID_9559287</t>
+  </si>
+  <si>
+    <t>ID_9559288</t>
+  </si>
+  <si>
+    <t>ID_9559289</t>
+  </si>
+  <si>
+    <t>ID_9559290</t>
+  </si>
+  <si>
+    <t>ID_9559291</t>
+  </si>
+  <si>
+    <t>ID_9559292</t>
+  </si>
+  <si>
+    <t>ID_9559295</t>
+  </si>
+  <si>
+    <t>ID_9559296</t>
+  </si>
+  <si>
+    <t>ID_9559297</t>
+  </si>
+  <si>
+    <t>ID_9559298</t>
+  </si>
+  <si>
+    <t>ID_9559398</t>
+  </si>
+  <si>
+    <t>ID_9559412</t>
+  </si>
+  <si>
+    <t>ID_9559430</t>
+  </si>
+  <si>
+    <t>ID_9559482</t>
+  </si>
+  <si>
+    <t>ID_9559486</t>
+  </si>
+  <si>
+    <t>ID_9559488</t>
+  </si>
+  <si>
+    <t>ID_9559489</t>
+  </si>
+  <si>
+    <t>ID_9559490</t>
+  </si>
+  <si>
+    <t>ID_9559491</t>
+  </si>
+  <si>
+    <t>ID_9559504</t>
+  </si>
+  <si>
+    <t>ID_9559505</t>
+  </si>
+  <si>
+    <t>ID_9559507</t>
+  </si>
+  <si>
+    <t>ID_9559542</t>
+  </si>
+  <si>
+    <t>ID_9559546</t>
+  </si>
+  <si>
+    <t>ID_9559547</t>
+  </si>
+  <si>
+    <t>ID_9559550</t>
+  </si>
+  <si>
+    <t>ID_9559561</t>
+  </si>
+  <si>
+    <t>ID_9559565</t>
+  </si>
+  <si>
+    <t>ID_9559570</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +425,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -183,8 +459,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -249,7 +527,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -549,15 +829,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I83"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38:M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="11" max="11" width="19.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,8 +870,17 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="3">
         <v>128111</v>
       </c>
@@ -614,8 +908,17 @@
       <c r="I2" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2">
+        <v>0.34080748024306401</v>
+      </c>
+      <c r="M2">
+        <v>0.65919251975693605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="6">
         <v>128113</v>
       </c>
@@ -643,8 +946,17 @@
       <c r="I3" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3">
+        <v>4.3186798514920501E-2</v>
+      </c>
+      <c r="M3">
+        <v>0.95681320148507998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="6">
         <v>128114</v>
       </c>
@@ -672,8 +984,17 @@
       <c r="I4" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4">
+        <v>0.16350114342980801</v>
+      </c>
+      <c r="M4">
+        <v>0.83649885657019196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="6">
         <v>128116</v>
       </c>
@@ -701,8 +1022,17 @@
       <c r="I5" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5">
+        <v>0.19762915910664</v>
+      </c>
+      <c r="M5">
+        <v>0.80237084089335997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="6">
         <v>128119</v>
       </c>
@@ -730,8 +1060,17 @@
       <c r="I6" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6">
+        <v>0.14746504027371901</v>
+      </c>
+      <c r="M6">
+        <v>0.85253495972628102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="6">
         <v>128125</v>
       </c>
@@ -759,8 +1098,17 @@
       <c r="I7" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7">
+        <v>1.32493202248014E-2</v>
+      </c>
+      <c r="M7">
+        <v>0.98675067977519904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="6">
         <v>128126</v>
       </c>
@@ -788,8 +1136,17 @@
       <c r="I8" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8">
+        <v>0.121046573076806</v>
+      </c>
+      <c r="M8">
+        <v>0.878953426923194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="6">
         <v>128128</v>
       </c>
@@ -817,8 +1174,17 @@
       <c r="I9" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9">
+        <v>0.12709885027773499</v>
+      </c>
+      <c r="M9">
+        <v>0.87290114972226496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="6">
         <v>128129</v>
       </c>
@@ -846,8 +1212,17 @@
       <c r="I10" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="K10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10">
+        <v>0.19990480123417201</v>
+      </c>
+      <c r="M10">
+        <v>0.80009519876582802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="6">
         <v>128131</v>
       </c>
@@ -875,8 +1250,17 @@
       <c r="I11" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="K11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11">
+        <v>0.315865496321732</v>
+      </c>
+      <c r="M11">
+        <v>0.684134503678268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="3">
         <v>128132</v>
       </c>
@@ -904,8 +1288,17 @@
       <c r="I12" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="K12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12">
+        <v>0.38359324421227903</v>
+      </c>
+      <c r="M12">
+        <v>0.61640675578772097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="6">
         <v>128133</v>
       </c>
@@ -933,8 +1326,17 @@
       <c r="I13" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13">
+        <v>6.4123137944946507E-2</v>
+      </c>
+      <c r="M13">
+        <v>0.93587686205505305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="6">
         <v>128134</v>
       </c>
@@ -962,8 +1364,17 @@
       <c r="I14" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="K14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14">
+        <v>0.20332338551337001</v>
+      </c>
+      <c r="M14">
+        <v>0.79667661448662996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="6">
         <v>128136</v>
       </c>
@@ -991,8 +1402,17 @@
       <c r="I15" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="K15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15">
+        <v>6.2051682474881797E-2</v>
+      </c>
+      <c r="M15">
+        <v>0.93794831752511798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="6">
         <v>128138</v>
       </c>
@@ -1020,8 +1440,17 @@
       <c r="I16" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="K16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16">
+        <v>0.14865717361797301</v>
+      </c>
+      <c r="M16">
+        <v>0.85134282638202696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="10">
         <v>128140</v>
       </c>
@@ -1049,8 +1478,17 @@
       <c r="I17" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="K17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17">
+        <v>0.117460477984169</v>
+      </c>
+      <c r="M17">
+        <v>0.88253952201583097</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="10">
         <v>128141</v>
       </c>
@@ -1078,8 +1516,17 @@
       <c r="I18" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="K18" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18">
+        <v>0.78116692220333905</v>
+      </c>
+      <c r="M18">
+        <v>0.218833077796661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="3">
         <v>128145</v>
       </c>
@@ -1107,8 +1554,17 @@
       <c r="I19" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="K19" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19">
+        <v>2.0205925813046501E-2</v>
+      </c>
+      <c r="M19">
+        <v>0.97979407418695397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="6">
         <v>128147</v>
       </c>
@@ -1136,8 +1592,17 @@
       <c r="I20" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="K20" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20">
+        <v>0.315469015403679</v>
+      </c>
+      <c r="M20">
+        <v>0.684530984596321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="6">
         <v>128149</v>
       </c>
@@ -1165,8 +1630,17 @@
       <c r="I21" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="K21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21">
+        <v>1.5224169837043699E-2</v>
+      </c>
+      <c r="M21">
+        <v>0.984775830162956</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="3">
         <v>128150</v>
       </c>
@@ -1194,8 +1668,17 @@
       <c r="I22" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="K22" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22">
+        <v>2.3356621072106998E-2</v>
+      </c>
+      <c r="M22">
+        <v>0.97664337892789299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="13">
         <v>9449998</v>
       </c>
@@ -1223,8 +1706,17 @@
       <c r="I23" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="K23" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23">
+        <v>0.111497113171759</v>
+      </c>
+      <c r="M23">
+        <v>0.88850288682824097</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="6">
         <v>9449999</v>
       </c>
@@ -1252,8 +1744,17 @@
       <c r="I24" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="K24" t="s">
+        <v>54</v>
+      </c>
+      <c r="L24">
+        <v>0.15094014549121501</v>
+      </c>
+      <c r="M24">
+        <v>0.84905985450878496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="7">
         <v>9450000</v>
       </c>
@@ -1281,8 +1782,17 @@
       <c r="I25" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="K25" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25">
+        <v>0.19285567566082801</v>
+      </c>
+      <c r="M25">
+        <v>0.80714432433917205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="6">
         <v>9558745</v>
       </c>
@@ -1310,8 +1820,17 @@
       <c r="I26" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="K26" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26">
+        <v>0.14566759650407099</v>
+      </c>
+      <c r="M26">
+        <v>0.85433240349592898</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="15">
         <v>9559194</v>
       </c>
@@ -1339,8 +1858,17 @@
       <c r="I27" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="K27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27">
+        <v>0.175618962990119</v>
+      </c>
+      <c r="M27">
+        <v>0.82438103700988097</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="6">
         <v>9559197</v>
       </c>
@@ -1368,8 +1896,17 @@
       <c r="I28" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="K28" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28">
+        <v>0.174191358304044</v>
+      </c>
+      <c r="M28">
+        <v>0.82580864169595602</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="3">
         <v>9559198</v>
       </c>
@@ -1397,8 +1934,17 @@
       <c r="I29" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="K29" t="s">
+        <v>59</v>
+      </c>
+      <c r="L29">
+        <v>1.48096374282926E-2</v>
+      </c>
+      <c r="M29">
+        <v>0.985190362571707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="6">
         <v>9559200</v>
       </c>
@@ -1426,8 +1972,17 @@
       <c r="I30" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="K30" t="s">
+        <v>60</v>
+      </c>
+      <c r="L30">
+        <v>0.15232003130180999</v>
+      </c>
+      <c r="M30">
+        <v>0.84767996869818996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="6">
         <v>9559201</v>
       </c>
@@ -1455,8 +2010,17 @@
       <c r="I31" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="K31" t="s">
+        <v>61</v>
+      </c>
+      <c r="L31">
+        <v>3.4520575294741097E-2</v>
+      </c>
+      <c r="M31">
+        <v>0.96547942470525905</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="6">
         <v>9559202</v>
       </c>
@@ -1484,8 +2048,17 @@
       <c r="I32" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="K32" t="s">
+        <v>62</v>
+      </c>
+      <c r="L32">
+        <v>3.45712572244391E-2</v>
+      </c>
+      <c r="M32">
+        <v>0.96542874277556101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="15">
         <v>9559231</v>
       </c>
@@ -1513,8 +2086,17 @@
       <c r="I33" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="K33" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33">
+        <v>0.16062191681784099</v>
+      </c>
+      <c r="M33">
+        <v>0.83937808318215901</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="15">
         <v>9559232</v>
       </c>
@@ -1542,8 +2124,17 @@
       <c r="I34" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="K34" t="s">
+        <v>64</v>
+      </c>
+      <c r="L34">
+        <v>0.12723244403724401</v>
+      </c>
+      <c r="M34">
+        <v>0.87276755596275601</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="15">
         <v>9559233</v>
       </c>
@@ -1571,8 +2162,17 @@
       <c r="I35" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="K35" t="s">
+        <v>65</v>
+      </c>
+      <c r="L35">
+        <v>0.13442236895283799</v>
+      </c>
+      <c r="M35">
+        <v>0.86557763104716201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="15">
         <v>9559234</v>
       </c>
@@ -1600,8 +2200,17 @@
       <c r="I36" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="K36" t="s">
+        <v>66</v>
+      </c>
+      <c r="L36">
+        <v>0.15530809570336801</v>
+      </c>
+      <c r="M36">
+        <v>0.84469190429663199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="15">
         <v>9559235</v>
       </c>
@@ -1629,8 +2238,17 @@
       <c r="I37" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="K37" t="s">
+        <v>67</v>
+      </c>
+      <c r="L37">
+        <v>0.176298374656746</v>
+      </c>
+      <c r="M37">
+        <v>0.82370162534325397</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="6">
         <v>9559238</v>
       </c>
@@ -1658,8 +2276,17 @@
       <c r="I38" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="K38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L38">
+        <v>0.12703975544405799</v>
+      </c>
+      <c r="M38">
+        <v>0.87296024455594201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="15">
         <v>9559239</v>
       </c>
@@ -1687,8 +2314,17 @@
       <c r="I39" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="K39" t="s">
+        <v>70</v>
+      </c>
+      <c r="L39">
+        <v>0.126962633124235</v>
+      </c>
+      <c r="M39">
+        <v>0.87303736687576505</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="15">
         <v>9559240</v>
       </c>
@@ -1716,8 +2352,17 @@
       <c r="I40" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="K40" t="s">
+        <v>71</v>
+      </c>
+      <c r="L40">
+        <v>0.16384309202363601</v>
+      </c>
+      <c r="M40">
+        <v>0.83615690797636399</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="16">
         <v>9559241</v>
       </c>
@@ -1745,8 +2390,17 @@
       <c r="I41" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="K41" t="s">
+        <v>72</v>
+      </c>
+      <c r="L41">
+        <v>0.98812892315516898</v>
+      </c>
+      <c r="M41">
+        <v>1.18710768448311E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="10">
         <v>9559246</v>
       </c>
@@ -1774,8 +2428,17 @@
       <c r="I42" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="K42" t="s">
+        <v>73</v>
+      </c>
+      <c r="L42">
+        <v>0.82178444671108897</v>
+      </c>
+      <c r="M42">
+        <v>0.17821555328891101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="10">
         <v>9559247</v>
       </c>
@@ -1803,8 +2466,17 @@
       <c r="I43" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="K43" t="s">
+        <v>74</v>
+      </c>
+      <c r="L43">
+        <v>0.97812514358285996</v>
+      </c>
+      <c r="M43">
+        <v>2.18748564171404E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="15">
         <v>9559248</v>
       </c>
@@ -1832,8 +2504,17 @@
       <c r="I44" s="19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="K44" t="s">
+        <v>75</v>
+      </c>
+      <c r="L44">
+        <v>6.0420487497404703E-2</v>
+      </c>
+      <c r="M44">
+        <v>0.93957951250259497</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="15">
         <v>9559250</v>
       </c>
@@ -1861,8 +2542,17 @@
       <c r="I45" s="19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="K45" t="s">
+        <v>76</v>
+      </c>
+      <c r="L45">
+        <v>1.6679677733452601E-2</v>
+      </c>
+      <c r="M45">
+        <v>0.98332032226654698</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="10">
         <v>9559261</v>
       </c>
@@ -1890,8 +2580,17 @@
       <c r="I46" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="K46" t="s">
+        <v>77</v>
+      </c>
+      <c r="L46">
+        <v>0.15652290165464899</v>
+      </c>
+      <c r="M46">
+        <v>0.84347709834535101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="13">
         <v>9559265</v>
       </c>
@@ -1919,8 +2618,17 @@
       <c r="I47" s="19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="K47" t="s">
+        <v>78</v>
+      </c>
+      <c r="L47">
+        <v>6.8237317405037801E-2</v>
+      </c>
+      <c r="M47">
+        <v>0.93176268259496198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="16">
         <v>9559267</v>
       </c>
@@ -1948,8 +2656,17 @@
       <c r="I48" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="K48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L48">
+        <v>0.84528169706616296</v>
+      </c>
+      <c r="M48">
+        <v>0.15471830293383701</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="6">
         <v>9559272</v>
       </c>
@@ -1977,8 +2694,17 @@
       <c r="I49" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="K49" t="s">
+        <v>80</v>
+      </c>
+      <c r="L49">
+        <v>4.2090552076965701E-2</v>
+      </c>
+      <c r="M49">
+        <v>0.95790944792303401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="13">
         <v>9559275</v>
       </c>
@@ -2006,8 +2732,17 @@
       <c r="I50" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="K50" t="s">
+        <v>81</v>
+      </c>
+      <c r="L50">
+        <v>2.3345120708159601E-2</v>
+      </c>
+      <c r="M50">
+        <v>0.97665487929184003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="7">
         <v>9559277</v>
       </c>
@@ -2035,8 +2770,17 @@
       <c r="I51" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="K51" t="s">
+        <v>82</v>
+      </c>
+      <c r="L51">
+        <v>8.2677726791066206E-2</v>
+      </c>
+      <c r="M51">
+        <v>0.917322273208934</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="10">
         <v>9559283</v>
       </c>
@@ -2064,8 +2808,17 @@
       <c r="I52" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="K52" t="s">
+        <v>83</v>
+      </c>
+      <c r="L52">
+        <v>0.87092111279788198</v>
+      </c>
+      <c r="M52">
+        <v>0.12907888720211799</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="7">
         <v>9559286</v>
       </c>
@@ -2093,8 +2846,17 @@
       <c r="I53" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="K53" t="s">
+        <v>84</v>
+      </c>
+      <c r="L53">
+        <v>0.15099586823073599</v>
+      </c>
+      <c r="M53">
+        <v>0.84900413176926404</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="7">
         <v>9559287</v>
       </c>
@@ -2122,8 +2884,17 @@
       <c r="I54" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="K54" t="s">
+        <v>85</v>
+      </c>
+      <c r="L54">
+        <v>1.9195756180109901E-2</v>
+      </c>
+      <c r="M54">
+        <v>0.98080424381988995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="6">
         <v>9559288</v>
       </c>
@@ -2151,8 +2922,17 @@
       <c r="I55" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="K55" t="s">
+        <v>86</v>
+      </c>
+      <c r="L55">
+        <v>6.6126771089425398E-2</v>
+      </c>
+      <c r="M55">
+        <v>0.933873228910575</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="7">
         <v>9559289</v>
       </c>
@@ -2180,8 +2960,17 @@
       <c r="I56" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="K56" t="s">
+        <v>87</v>
+      </c>
+      <c r="L56">
+        <v>0.122819035179471</v>
+      </c>
+      <c r="M56">
+        <v>0.87718096482052899</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="6">
         <v>9559290</v>
       </c>
@@ -2209,8 +2998,17 @@
       <c r="I57" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="K57" t="s">
+        <v>88</v>
+      </c>
+      <c r="L57">
+        <v>0.15763786420276299</v>
+      </c>
+      <c r="M57">
+        <v>0.84236213579723695</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="7">
         <v>9559291</v>
       </c>
@@ -2238,8 +3036,17 @@
       <c r="I58" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="K58" t="s">
+        <v>89</v>
+      </c>
+      <c r="L58">
+        <v>0.131553441424969</v>
+      </c>
+      <c r="M58">
+        <v>0.86844655857503095</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="6">
         <v>9559292</v>
       </c>
@@ -2267,8 +3074,17 @@
       <c r="I59" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="K59" t="s">
+        <v>90</v>
+      </c>
+      <c r="L59">
+        <v>5.08963282978988E-2</v>
+      </c>
+      <c r="M59">
+        <v>0.94910367170210097</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="6">
         <v>9559295</v>
       </c>
@@ -2296,8 +3112,17 @@
       <c r="I60" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="K60" t="s">
+        <v>91</v>
+      </c>
+      <c r="L60">
+        <v>0.119558457212284</v>
+      </c>
+      <c r="M60">
+        <v>0.88044154278771602</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="6">
         <v>9559296</v>
       </c>
@@ -2325,8 +3150,17 @@
       <c r="I61" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="K61" t="s">
+        <v>92</v>
+      </c>
+      <c r="L61">
+        <v>4.2351996267865698E-2</v>
+      </c>
+      <c r="M61">
+        <v>0.95764800373213399</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="6">
         <v>9559297</v>
       </c>
@@ -2354,8 +3188,17 @@
       <c r="I62" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="K62" t="s">
+        <v>93</v>
+      </c>
+      <c r="L62">
+        <v>0.14574640276517101</v>
+      </c>
+      <c r="M62">
+        <v>0.85425359723482897</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="6">
         <v>9559298</v>
       </c>
@@ -2383,8 +3226,17 @@
       <c r="I63" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="K63" t="s">
+        <v>94</v>
+      </c>
+      <c r="L63">
+        <v>7.25456465167654E-2</v>
+      </c>
+      <c r="M63">
+        <v>0.92745435348323502</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="6">
         <v>9559398</v>
       </c>
@@ -2412,8 +3264,17 @@
       <c r="I64" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="K64" t="s">
+        <v>95</v>
+      </c>
+      <c r="L64">
+        <v>5.6045244949325203E-2</v>
+      </c>
+      <c r="M64">
+        <v>0.94395475505067505</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="6">
         <v>9559412</v>
       </c>
@@ -2441,8 +3302,17 @@
       <c r="I65" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="K65" t="s">
+        <v>96</v>
+      </c>
+      <c r="L65">
+        <v>7.4272997271387295E-2</v>
+      </c>
+      <c r="M65">
+        <v>0.92572700272861297</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="6">
         <v>9559430</v>
       </c>
@@ -2470,8 +3340,17 @@
       <c r="I66" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="K66" t="s">
+        <v>97</v>
+      </c>
+      <c r="L66">
+        <v>8.56111194427394E-2</v>
+      </c>
+      <c r="M66">
+        <v>0.91438888055726097</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="6">
         <v>9559482</v>
       </c>
@@ -2499,8 +3378,17 @@
       <c r="I67" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="K67" t="s">
+        <v>98</v>
+      </c>
+      <c r="L67">
+        <v>0.18363169369426399</v>
+      </c>
+      <c r="M67">
+        <v>0.81636830630573598</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="6">
         <v>9559486</v>
       </c>
@@ -2528,8 +3416,17 @@
       <c r="I68" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="K68" t="s">
+        <v>99</v>
+      </c>
+      <c r="L68">
+        <v>0.15588510974481201</v>
+      </c>
+      <c r="M68">
+        <v>0.84411489025518804</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="6">
         <v>9559488</v>
       </c>
@@ -2557,8 +3454,17 @@
       <c r="I69" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="K69" t="s">
+        <v>100</v>
+      </c>
+      <c r="L69">
+        <v>0.175364146654027</v>
+      </c>
+      <c r="M69">
+        <v>0.824635853345973</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="6">
         <v>9559489</v>
       </c>
@@ -2586,8 +3492,17 @@
       <c r="I70" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="K70" t="s">
+        <v>101</v>
+      </c>
+      <c r="L70">
+        <v>0.27905935128738102</v>
+      </c>
+      <c r="M70">
+        <v>0.72094064871261898</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="6">
         <v>9559490</v>
       </c>
@@ -2615,8 +3530,17 @@
       <c r="I71" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="K71" t="s">
+        <v>102</v>
+      </c>
+      <c r="L71">
+        <v>0.138292014722318</v>
+      </c>
+      <c r="M71">
+        <v>0.861707985277682</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="10">
         <v>9559491</v>
       </c>
@@ -2644,8 +3568,17 @@
       <c r="I72" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="K72" t="s">
+        <v>103</v>
+      </c>
+      <c r="L72">
+        <v>0.99676019865670096</v>
+      </c>
+      <c r="M72">
+        <v>3.2398013432986001E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="6">
         <v>9559504</v>
       </c>
@@ -2673,8 +3606,17 @@
       <c r="I73" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="K73" t="s">
+        <v>104</v>
+      </c>
+      <c r="L73">
+        <v>0.118395886312263</v>
+      </c>
+      <c r="M73">
+        <v>0.88160411368773695</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="6">
         <v>9559505</v>
       </c>
@@ -2702,8 +3644,17 @@
       <c r="I74" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="K74" t="s">
+        <v>105</v>
+      </c>
+      <c r="L74">
+        <v>0.14621469060544301</v>
+      </c>
+      <c r="M74">
+        <v>0.85378530939455699</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="3">
         <v>9559507</v>
       </c>
@@ -2731,8 +3682,17 @@
       <c r="I75" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="K75" t="s">
+        <v>106</v>
+      </c>
+      <c r="L75">
+        <v>0.16284438863981601</v>
+      </c>
+      <c r="M75">
+        <v>0.83715561136018402</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="6">
         <v>9559542</v>
       </c>
@@ -2760,8 +3720,17 @@
       <c r="I76" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="K76" t="s">
+        <v>107</v>
+      </c>
+      <c r="L76">
+        <v>0.17092483286455301</v>
+      </c>
+      <c r="M76">
+        <v>0.82907516713544704</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="6">
         <v>9559546</v>
       </c>
@@ -2789,8 +3758,17 @@
       <c r="I77" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="K77" t="s">
+        <v>108</v>
+      </c>
+      <c r="L77">
+        <v>4.9343873413944001E-2</v>
+      </c>
+      <c r="M77">
+        <v>0.95065612658605603</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="10">
         <v>9559547</v>
       </c>
@@ -2818,8 +3796,17 @@
       <c r="I78" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="K78" t="s">
+        <v>109</v>
+      </c>
+      <c r="L78">
+        <v>0.79314061012770498</v>
+      </c>
+      <c r="M78">
+        <v>0.20685938987229499</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="6">
         <v>9559550</v>
       </c>
@@ -2847,8 +3834,17 @@
       <c r="I79" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="K79" t="s">
+        <v>110</v>
+      </c>
+      <c r="L79">
+        <v>0.121089343435133</v>
+      </c>
+      <c r="M79">
+        <v>0.878910656564867</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="6">
         <v>9559561</v>
       </c>
@@ -2876,8 +3872,17 @@
       <c r="I80" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="K80" t="s">
+        <v>111</v>
+      </c>
+      <c r="L80">
+        <v>0.120073872003352</v>
+      </c>
+      <c r="M80">
+        <v>0.87992612799664804</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="6">
         <v>9559565</v>
       </c>
@@ -2905,8 +3910,17 @@
       <c r="I81" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="K81" t="s">
+        <v>112</v>
+      </c>
+      <c r="L81">
+        <v>0.108709506800267</v>
+      </c>
+      <c r="M81">
+        <v>0.89129049319973297</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="6">
         <v>9559570</v>
       </c>
@@ -2934,8 +3948,17 @@
       <c r="I82" s="20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="K82" t="s">
+        <v>113</v>
+      </c>
+      <c r="L82">
+        <v>0.26395273150354598</v>
+      </c>
+      <c r="M82">
+        <v>0.73604726849645397</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="6" t="s">
         <v>28</v>
       </c>
@@ -2963,9 +3986,24 @@
       <c r="I83" s="20" t="s">
         <v>17</v>
       </c>
+      <c r="K83" t="s">
+        <v>68</v>
+      </c>
+      <c r="L83">
+        <v>0.162557077689924</v>
+      </c>
+      <c r="M83">
+        <v>0.837442922310076</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2975,9 +4013,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2987,8 +4030,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>